--- a/src/informesGenerados/ResumenCDNT.xlsx
+++ b/src/informesGenerados/ResumenCDNT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Mes</t>
   </si>
@@ -101,28 +101,46 @@
     <t>U/O</t>
   </si>
   <si>
+    <t>DTLT</t>
+  </si>
+  <si>
+    <t>DTCA</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
     <t>DTCF</t>
   </si>
   <si>
-    <t>DTCA</t>
-  </si>
-  <si>
-    <t>DTPR</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>DTAR</t>
-  </si>
-  <si>
-    <t>DTCM</t>
-  </si>
-  <si>
     <t>DVLH</t>
   </si>
   <si>
-    <t>DTMY</t>
+    <t>DTIJ</t>
+  </si>
+  <si>
+    <t>DTGT</t>
+  </si>
+  <si>
+    <t>DTSC</t>
   </si>
   <si>
     <t>DTSS</t>
@@ -131,24 +149,6 @@
     <t>DTGR</t>
   </si>
   <si>
-    <t>DTHO</t>
-  </si>
-  <si>
-    <t>DTIJ</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>DTLT</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
     <t>Totales</t>
   </si>
   <si>
@@ -215,58 +215,124 @@
     <t>Cable telefónico</t>
   </si>
   <si>
+    <t>Cable coaxial</t>
+  </si>
+  <si>
     <t>Bajante telefónico</t>
   </si>
   <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>Tensor de anclaje</t>
+  </si>
+  <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
     <t>Tensor</t>
   </si>
   <si>
-    <t>Cable coaxial</t>
-  </si>
-  <si>
     <t>Alambre de coser</t>
   </si>
   <si>
+    <t>Postes</t>
+  </si>
+  <si>
+    <t>Mondragón</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>26 Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Plaza</t>
+  </si>
+  <si>
+    <t>Habana del Este</t>
+  </si>
+  <si>
+    <t>3 Municipios</t>
+  </si>
+  <si>
+    <t>11 Municipios</t>
+  </si>
+  <si>
     <t>Cant-Hechos</t>
   </si>
   <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>4 Servicios Afectados</t>
-  </si>
-  <si>
-    <t>4 Municipios</t>
-  </si>
-  <si>
     <t>% Servicios Afectados</t>
   </si>
   <si>
     <t>Venezuela</t>
   </si>
   <si>
-    <t>0 Municipios &lt;=</t>
+    <t>1 Municipios &lt;=</t>
   </si>
   <si>
     <t>3 Municipios &lt;=</t>
   </si>
   <si>
-    <t>Cantidad de Hechos: 12</t>
-  </si>
-  <si>
-    <t>1 Municipios</t>
-  </si>
-  <si>
-    <t>10 Municipios</t>
+    <t>13 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>Cantidad de Hechos: 75</t>
+  </si>
+  <si>
+    <t>Santiago de Cuba</t>
+  </si>
+  <si>
+    <t>Las Tunas</t>
+  </si>
+  <si>
+    <t>Bayamo</t>
+  </si>
+  <si>
+    <t>Camagüey</t>
+  </si>
+  <si>
+    <t>Jovellanos</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
+  </si>
+  <si>
+    <t>9 Municipios</t>
+  </si>
+  <si>
+    <t>26 Municipios</t>
+  </si>
+  <si>
+    <t>Robo de cápsulas</t>
+  </si>
+  <si>
+    <t>Cabina rota</t>
   </si>
   <si>
     <t>Robo del microteléfono</t>
   </si>
   <si>
+    <t>Display roto o dañado</t>
+  </si>
+  <si>
+    <t>Corte del bajante</t>
+  </si>
+  <si>
     <t>Vandalismo múltiple</t>
   </si>
   <si>
     <t>Microteléfono partido</t>
+  </si>
+  <si>
+    <t>Robo equipo completo</t>
+  </si>
+  <si>
+    <t>Robo de la hucha</t>
   </si>
   <si>
     <t>Cant-Hechos-Tpub</t>
@@ -703,7 +769,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 20 hechos</c:v>
+            <c:v>2020: 126 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1025,7 +1091,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 11 hechos</c:v>
+            <c:v>2020: 61 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1147,49 +1213,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1202,7 +1268,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 12 hechos</c:v>
+            <c:v>2021: 75 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1324,49 +1390,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1468,7 +1534,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 8 hechos</c:v>
+            <c:v>2020: 37 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1590,49 +1656,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -1645,7 +1711,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 4 hechos</c:v>
+            <c:v>2021: 20 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1767,28 +1833,28 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1803,7 +1869,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1812,7 +1878,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,11 +1977,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$28</c:f>
+              <c:f>'Datos para graficos'!$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cantidad de Hechos: 12</c:v>
+                  <c:v>Cantidad de Hechos: 75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1980,27 +2046,63 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$29:$A$30</c:f>
+              <c:f>'Datos para graficos'!$A$45:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1 Municipios</c:v>
+                  <c:v>Santiago de Cuba</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 Municipios</c:v>
+                  <c:v>Las Tunas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bayamo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camagüey</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jovellanos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Isla de la Juventud</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$29:$B$30</c:f>
+              <c:f>'Datos para graficos'!$B$45:$B$52</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2088,7 +2190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Servicios Afectados</c:v>
+                  <c:v>26 Servicios Afectados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2153,27 +2255,39 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$E$20:$E$21</c:f>
+              <c:f>'Datos para graficos'!$E$20:$E$23</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Plaza</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4 Municipios</c:v>
+                  <c:v>Habana del Este</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$F$20:$F$21</c:f>
+              <c:f>'Datos para graficos'!$F$20:$F$23</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2256,11 +2370,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$7</c:f>
+              <c:f>'Datos para graficos'!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2310,9 +2424,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$8:$A$13</c:f>
+              <c:f>'Datos para graficos'!$A$16:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
@@ -2323,12 +2437,21 @@
                   <c:v>Bajante telefónico</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Gabinetes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cable simétrico</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alambre de cobre</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>Alambre de coser</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Cant-Hechos</c:v>
                 </c:pt>
               </c:strCache>
@@ -2336,25 +2459,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$8:$B$13</c:f>
+              <c:f>'Datos para graficos'!$B$16:$B$24</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2408,7 +2540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$34</c:f>
+              <c:f>'Datos para graficos'!$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2462,16 +2594,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$35:$A$37</c:f>
+              <c:f>'Datos para graficos'!$A$62:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Robo del microteléfono</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Microteléfono partido</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Vandalismo múltiple</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>Robo equipo completo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Robo de la hucha</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Cant-Hechos-Tpub</c:v>
                 </c:pt>
               </c:strCache>
@@ -2479,16 +2620,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$35:$B$37</c:f>
+              <c:f>'Datos para graficos'!$B$62:$B$67</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2694,9 +2844,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$A$13:$A$28</c:f>
+              <c:f>'Datos para graficos'!$A$24:$A$44</c:f>
               <c:numCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -2740,9 +2890,24 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2979,9 +3144,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$A$37:$A$51</c:f>
+              <c:f>'Datos para graficos'!$A$67:$A$87</c:f>
               <c:numCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
@@ -3025,6 +3190,24 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3732,13 +3915,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="7">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -3751,7 +3934,7 @@
       </c>
       <c r="H4" s="8">
         <f ca="1">SUM(B4:G4)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -3759,13 +3942,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -3778,7 +3961,7 @@
       </c>
       <c r="H5" s="8">
         <f ca="1">SUM(B5:G5)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -3786,13 +3969,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -3801,11 +3984,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="8">
         <f ca="1">SUM(B6:G6)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -3813,26 +3996,26 @@
         <v>12</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="8">
         <f ca="1">SUM(B7:G7)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -3840,13 +4023,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -3855,11 +4038,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">SUM(B8:G8)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -3867,13 +4050,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -3882,11 +4065,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">SUM(B9:G9)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -4054,7 +4237,7 @@
       </c>
       <c r="H15" s="2">
         <f ca="1">SUM(H3:H14)</f>
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -4470,14 +4653,14 @@
         <v>2020</v>
       </c>
       <c r="B2" s="15">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C2" s="15">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D2" s="16">
         <f ca="1">B2+C2</f>
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
@@ -4485,14 +4668,14 @@
         <v>2021</v>
       </c>
       <c r="B3" s="15">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">C3+B3</f>
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="true">
@@ -4501,15 +4684,15 @@
       </c>
       <c r="B4" s="14" t="str">
         <f ca="1">IF(B3&gt;B2,(B3-B2)&amp;" más",IF(B2&gt;B3,(B2-B3)&amp;" menos","Igual"))</f>
-        <v>1 más</v>
+        <v>14 más</v>
       </c>
       <c r="C4" s="14" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>4 menos</v>
+        <v>16 menos</v>
       </c>
       <c r="D4" s="16" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>3 menos</v>
+        <v>2 menos</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -4518,15 +4701,15 @@
       </c>
       <c r="B5" s="17" t="str">
         <f ca="1">IF(B3&lt;B2,ROUND(100*(B2-B3)/B2,0)  &amp;  "% Red",IF(B3=B2,0%,ROUND(100*(B3-B2)/B2,0) &amp; "% Inc"))</f>
-        <v>9% Inc</v>
+        <v>23% Inc</v>
       </c>
       <c r="C5" s="17" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>50% Red</v>
+        <v>43% Red</v>
       </c>
       <c r="D5" s="18" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>16% Red</v>
+        <v>2% Red</v>
       </c>
     </row>
     <row r="8">
@@ -4580,7 +4763,7 @@
         <v>27</v>
       </c>
       <c r="J9" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>28</v>
@@ -4594,33 +4777,33 @@
         <v>29</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="23">
         <f ca="1">C10-B10</f>
         <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="24">
         <f ca="1">F10-E10</f>
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="22">
         <v>1</v>
@@ -4628,70 +4811,70 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23">
         <f ca="1">C11-B11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="24">
         <f ca="1">F11-E11</f>
         <v>-2</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="22">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="25">
         <f ca="1">C12-B12</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="24">
         <f ca="1">F12-E12</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J12" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4702,33 +4885,33 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7">
         <v>4</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
       </c>
       <c r="D13" s="25">
         <f ca="1">C13-B13</f>
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22">
+        <v>5</v>
+      </c>
+      <c r="G13" s="24">
         <f ca="1">F13-E13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J13" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>37</v>
@@ -4745,11 +4928,11 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
+        <v>3</v>
+      </c>
+      <c r="D14" s="23">
         <f ca="1">C14-B14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7">
         <v>1</v>
@@ -4762,13 +4945,13 @@
         <v>-1</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="24">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="J14" s="22">
+        <v>3</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M14" s="24">
         <v>0</v>
@@ -4776,60 +4959,60 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="25">
+        <v>9</v>
+      </c>
+      <c r="D15" s="23">
         <f ca="1">C15-B15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="22">
         <f ca="1">F15-E15</f>
         <v>1</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="J15" s="22">
+        <v>3</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M15" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="23">
         <f ca="1">C16-B16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="24">
         <f ca="1">F16-E16</f>
@@ -4838,88 +5021,88 @@
       <c r="I16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="24">
-        <v>0</v>
+      <c r="J16" s="22">
+        <v>2</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M16" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23">
         <f ca="1">C17-B17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="24">
         <f ca="1">F17-E17</f>
+        <v>-4</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="22">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="24">
         <v>-1</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="24">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25">
         <f ca="1">C18-B18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
       </c>
       <c r="G18" s="24">
         <f ca="1">F18-E18</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" s="24">
         <v>0</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -4927,14 +5110,14 @@
         <v>28</v>
       </c>
       <c r="B19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
       </c>
       <c r="D19" s="25">
         <f ca="1">C19-B19</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -4947,201 +5130,201 @@
         <v>1</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J19" s="24">
         <v>0</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M19" s="24">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="23">
         <f ca="1">C20-B20</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
       </c>
       <c r="G20" s="24">
         <f ca="1">F20-E20</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J20" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="M20" s="24">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="25">
+        <v>10</v>
+      </c>
+      <c r="D21" s="23">
         <f ca="1">C21-B21</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="24">
         <f ca="1">F21-E21</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J21" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M21" s="24">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" s="25">
         <f ca="1">C22-B22</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="24">
         <f ca="1">F22-E22</f>
         <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" s="24">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M22" s="24">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B23" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23" s="25">
         <f ca="1">C23-B23</f>
         <v>-1</v>
       </c>
       <c r="E23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
       </c>
       <c r="G23" s="24">
         <f ca="1">F23-E23</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J23" s="24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M23" s="24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="25">
+        <v>12</v>
+      </c>
+      <c r="D24" s="23">
         <f ca="1">C24-B24</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="7">
         <v>0</v>
       </c>
       <c r="G24" s="24">
         <f ca="1">F24-E24</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="27">
+        <v>-11</v>
+      </c>
+      <c r="L24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="27">
-        <v>-3</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>31</v>
-      </c>
       <c r="M24" s="27">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
@@ -5162,11 +5345,11 @@
         <v>2</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="24">
         <f ca="1">F25-E25</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -5201,8 +5384,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -5425,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="7">
         <v>0</v>
@@ -5454,7 +5637,7 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
         <f ca="1">SUM(C5:N5)</f>
@@ -5504,19 +5687,19 @@
         <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" s="7">
         <v>0</v>
       </c>
       <c r="U5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="7">
         <v>0</v>
@@ -5539,7 +5722,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <f ca="1">SUM(C6:N6)</f>
@@ -5604,7 +5787,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="7">
         <v>0</v>
@@ -5624,7 +5807,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <f ca="1">SUM(C7:N7)</f>
@@ -5680,13 +5863,13 @@
         <v>0</v>
       </c>
       <c r="S7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="7">
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="7">
         <v>0</v>
@@ -5768,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="7">
         <v>0</v>
@@ -5794,7 +5977,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2">
         <f ca="1">SUM(C9:N9)</f>
@@ -5844,22 +6027,22 @@
         <v>1</v>
       </c>
       <c r="Q9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="7">
         <v>0</v>
@@ -5879,7 +6062,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <f ca="1">SUM(C10:N10)</f>
@@ -5938,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="7">
         <v>0</v>
@@ -5964,7 +6147,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
         <f ca="1">SUM(C11:N11)</f>
@@ -6017,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="7">
         <v>0</v>
@@ -6026,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" s="7">
         <v>0</v>
@@ -6049,7 +6232,7 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <f ca="1">SUM(C12:N12)</f>
@@ -6111,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="7">
         <v>0</v>
@@ -6219,7 +6402,7 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <f ca="1">SUM(C14:N14)</f>
@@ -6272,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="R14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="7">
         <v>0</v>
@@ -6304,7 +6487,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <f ca="1">SUM(C15:N15)</f>
@@ -6354,22 +6537,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="7">
         <v>0</v>
       </c>
       <c r="T15" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="7">
         <v>0</v>
@@ -6389,7 +6572,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <f ca="1">SUM(C16:N16)</f>
@@ -6442,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="7">
         <v>0</v>
@@ -6451,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="7">
         <v>0</v>
@@ -6474,7 +6657,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <f ca="1">SUM(C17:N17)</f>
@@ -6524,13 +6707,13 @@
         <v>1</v>
       </c>
       <c r="Q17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="7">
         <v>0</v>
@@ -6539,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="7">
         <v>0</v>
@@ -6559,7 +6742,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <f ca="1">SUM(C18:N18)</f>
@@ -6609,22 +6792,22 @@
         <v>1</v>
       </c>
       <c r="Q18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="7">
         <v>0</v>
@@ -6931,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="7">
         <v>0</v>
@@ -6954,7 +7137,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <f ca="1">SUM(C23:N23)</f>
@@ -7007,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T23" s="7">
         <v>0</v>
@@ -7039,7 +7222,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
         <f ca="1">SUM(C24:N24)</f>
@@ -7124,7 +7307,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
         <f ca="1">SUM(C25:N25)</f>
@@ -7174,16 +7357,16 @@
         <v>1</v>
       </c>
       <c r="Q25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="7">
         <v>0</v>
@@ -7294,7 +7477,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
         <f ca="1">SUM(C27:N27)</f>
@@ -7344,13 +7527,13 @@
         <v>1</v>
       </c>
       <c r="Q27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" s="7">
         <v>0</v>
@@ -7379,7 +7562,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <f ca="1">SUM(C28:N28)</f>
@@ -7441,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="7">
         <v>0</v>
@@ -7464,7 +7647,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
         <f ca="1">SUM(C29:N29)</f>
@@ -7517,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
         <v>0</v>
@@ -7549,7 +7732,7 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <f ca="1">SUM(C30:N30)</f>
@@ -7719,7 +7902,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <f ca="1">SUM(C32:N32)</f>
@@ -7804,7 +7987,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
         <f ca="1">SUM(C33:N33)</f>
@@ -7889,7 +8072,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <f ca="1">SUM(C34:N34)</f>
@@ -7951,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="7">
         <v>0</v>
@@ -7974,7 +8157,7 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2">
         <f ca="1">SUM(C35:N35)</f>
@@ -8059,7 +8242,7 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
         <f ca="1">SUM(C36:N36)</f>
@@ -8209,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="7">
         <v>0</v>
@@ -8516,10 +8699,10 @@
         <v>46</v>
       </c>
       <c r="D55" s="7">
+        <v>9</v>
+      </c>
+      <c r="E55" s="36">
         <v>2</v>
-      </c>
-      <c r="E55" s="36">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -8528,10 +8711,10 @@
         <v>47</v>
       </c>
       <c r="D56" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E56" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -8540,10 +8723,10 @@
         <v>48</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" s="36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -8552,10 +8735,10 @@
         <v>49</v>
       </c>
       <c r="D58" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E58" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -8564,10 +8747,10 @@
         <v>50</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E59" s="36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -8576,10 +8759,10 @@
         <v>51</v>
       </c>
       <c r="D60" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E60" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -8644,13 +8827,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A21:AA21"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="A3:AA3"/>
     <mergeCell ref="O1:AA1"/>
     <mergeCell ref="B54:B65"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="A21:AA21"/>
     <mergeCell ref="B42:B53"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8660,7 +8843,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -8687,16 +8870,16 @@
         <v>63</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>994</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0.07</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4">
@@ -8704,16 +8887,16 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>794</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0.07</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -8721,16 +8904,16 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>962</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -8738,115 +8921,115 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>350</v>
+        <v>2423</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>450</v>
+        <v>1070</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -8854,297 +9037,603 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>467</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>3460</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>70</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>580</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>7702</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>5</v>
+      <c r="C23">
+        <v>3300</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F23">
-        <v>1.69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>12</v>
+      <c r="A24" t="s">
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="F24">
-        <v>0.5</v>
+      <c r="F24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="A29">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="A30">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31">
+      <c r="A31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
         <v>4</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
+      <c r="A33">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="A34">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="A35">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
+      <c r="A36">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>83</v>
+      <c r="A37">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49">
         <v>3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44">
+    <row r="50">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51">
         <v>2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45">
+    <row r="52">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
         <v>7</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46">
+    <row r="76">
+      <c r="A76">
         <v>3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47">
+    <row r="77">
+      <c r="A77">
         <v>5</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48">
+    <row r="78">
+      <c r="A78">
         <v>3</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49">
+    <row r="79">
+      <c r="A79">
         <v>7</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50">
+    <row r="80">
+      <c r="A80">
         <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/informesGenerados/ResumenCDNT.xlsx
+++ b/src/informesGenerados/ResumenCDNT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Mes</t>
   </si>
@@ -113,24 +113,24 @@
     <t>DTCM</t>
   </si>
   <si>
+    <t>DTHO</t>
+  </si>
+  <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>DTMY</t>
+  </si>
+  <si>
     <t>DTMZ</t>
   </si>
   <si>
-    <t>DTAR</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>DTHO</t>
-  </si>
-  <si>
-    <t>DTMY</t>
-  </si>
-  <si>
-    <t>DTCF</t>
-  </si>
-  <si>
     <t>DVLH</t>
   </si>
   <si>
@@ -239,6 +239,9 @@
     <t>Alambre de coser</t>
   </si>
   <si>
+    <t>Crucetas</t>
+  </si>
+  <si>
     <t>Postes</t>
   </si>
   <si>
@@ -263,10 +266,10 @@
     <t>11 Municipios</t>
   </si>
   <si>
+    <t>% Servicios Afectados</t>
+  </si>
+  <si>
     <t>Cant-Hechos</t>
-  </si>
-  <si>
-    <t>% Servicios Afectados</t>
   </si>
   <si>
     <t>Venezuela</t>
@@ -1091,7 +1094,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 61 hechos</c:v>
+            <c:v>2020: 64 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1237,7 +1240,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1249,13 +1252,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1534,7 +1537,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 37 hechos</c:v>
+            <c:v>2020: 41 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1665,19 +1668,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -1977,7 +1980,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$44</c:f>
+              <c:f>'Datos para graficos'!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2046,7 +2049,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$45:$A$52</c:f>
+              <c:f>'Datos para graficos'!$A$46:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2078,7 +2081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$45:$B$52</c:f>
+              <c:f>'Datos para graficos'!$B$46:$B$53</c:f>
               <c:numCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -2370,7 +2373,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$15</c:f>
+              <c:f>'Datos para graficos'!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2424,7 +2427,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$16:$A$24</c:f>
+              <c:f>'Datos para graficos'!$A$17:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2459,7 +2462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$16:$B$24</c:f>
+              <c:f>'Datos para graficos'!$B$17:$B$25</c:f>
               <c:numCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2540,7 +2543,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$61</c:f>
+              <c:f>'Datos para graficos'!$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2594,7 +2597,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$62:$A$67</c:f>
+              <c:f>'Datos para graficos'!$A$63:$A$68</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2620,7 +2623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$62:$B$67</c:f>
+              <c:f>'Datos para graficos'!$B$63:$B$68</c:f>
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2844,7 +2847,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$A$24:$A$44</c:f>
+              <c:f>'Datos para graficos'!$A$25:$A$45</c:f>
               <c:numCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -3144,7 +3147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$A$67:$A$87</c:f>
+              <c:f>'Datos para graficos'!$A$68:$A$88</c:f>
               <c:numCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -4653,14 +4656,14 @@
         <v>2020</v>
       </c>
       <c r="B2" s="15">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="15">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" s="16">
         <f ca="1">B2+C2</f>
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
@@ -4684,15 +4687,15 @@
       </c>
       <c r="B4" s="14" t="str">
         <f ca="1">IF(B3&gt;B2,(B3-B2)&amp;" más",IF(B2&gt;B3,(B2-B3)&amp;" menos","Igual"))</f>
-        <v>14 más</v>
+        <v>11 más</v>
       </c>
       <c r="C4" s="14" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>16 menos</v>
+        <v>20 menos</v>
       </c>
       <c r="D4" s="16" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>2 menos</v>
+        <v>9 menos</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -4701,15 +4704,15 @@
       </c>
       <c r="B5" s="17" t="str">
         <f ca="1">IF(B3&lt;B2,ROUND(100*(B2-B3)/B2,0)  &amp;  "% Red",IF(B3=B2,0%,ROUND(100*(B3-B2)/B2,0) &amp; "% Inc"))</f>
-        <v>23% Inc</v>
+        <v>17% Inc</v>
       </c>
       <c r="C5" s="17" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>43% Red</v>
+        <v>49% Red</v>
       </c>
       <c r="D5" s="18" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>2% Red</v>
+        <v>9% Red</v>
       </c>
     </row>
     <row r="8">
@@ -4805,8 +4808,8 @@
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="22">
-        <v>1</v>
+      <c r="M10" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4898,23 +4901,23 @@
         <v>-11</v>
       </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="7">
         <v>5</v>
       </c>
       <c r="G13" s="24">
         <f ca="1">F13-E13</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" s="22">
         <v>3</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M13" s="24">
         <v>0</v>
@@ -4935,31 +4938,31 @@
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
       </c>
       <c r="G14" s="24">
         <f ca="1">F14-E14</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J14" s="22">
         <v>3</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M14" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" s="7">
         <v>6</v>
@@ -4972,14 +4975,14 @@
         <v>3</v>
       </c>
       <c r="E15" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="7">
         <v>4</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="24">
         <f ca="1">F15-E15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>38</v>
@@ -4988,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M15" s="24">
         <v>-1</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -5019,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J16" s="22">
         <v>2</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M16" s="24">
         <v>-1</v>
@@ -5046,23 +5049,23 @@
         <v>4</v>
       </c>
       <c r="E17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
       </c>
       <c r="G17" s="24">
         <f ca="1">F17-E17</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J17" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M17" s="24">
         <v>-1</v>
@@ -5073,14 +5076,14 @@
         <v>41</v>
       </c>
       <c r="B18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="25">
         <f ca="1">C18-B18</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
@@ -5099,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M18" s="24">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
@@ -5130,13 +5133,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J19" s="24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M19" s="24">
         <v>-2</v>
@@ -5167,13 +5170,13 @@
         <v>-2</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J20" s="24">
         <v>-1</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M20" s="24">
         <v>-2</v>
@@ -5204,13 +5207,13 @@
         <v>-1</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J21" s="24">
         <v>-1</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M21" s="24">
         <v>-2</v>
@@ -5218,17 +5221,17 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="7">
         <v>4</v>
       </c>
       <c r="D22" s="25">
         <f ca="1">C22-B22</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -5241,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J22" s="24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>32</v>
@@ -5295,14 +5298,14 @@
         <v>40</v>
       </c>
       <c r="B24" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
       </c>
       <c r="D24" s="23">
         <f ca="1">C24-B24</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -5324,7 +5327,7 @@
         <v>33</v>
       </c>
       <c r="M24" s="27">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="25">
@@ -5383,9 +5386,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <f ca="1">SUM(C9:N9)</f>
@@ -6062,7 +6065,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <f ca="1">SUM(C10:N10)</f>
@@ -6572,7 +6575,7 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <f ca="1">SUM(C16:N16)</f>
@@ -7477,7 +7480,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <f ca="1">SUM(C27:N27)</f>
@@ -7562,7 +7565,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <f ca="1">SUM(C28:N28)</f>
@@ -8072,7 +8075,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <f ca="1">SUM(C34:N34)</f>
@@ -8827,12 +8830,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A3:AA3"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="B42:B53"/>
     <mergeCell ref="B54:B65"/>
-    <mergeCell ref="A3:AA3"/>
     <mergeCell ref="A21:AA21"/>
-    <mergeCell ref="B42:B53"/>
-    <mergeCell ref="B1:N1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8843,7 +8846,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -8887,13 +8890,13 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>794</v>
+        <v>854</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>0.16</v>
@@ -8910,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>0.08</v>
@@ -9012,7 +9015,7 @@
         <v>1070</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>0.03</v>
@@ -9040,10 +9043,10 @@
         <v>73</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -9057,10 +9060,10 @@
         <v>74</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -9071,13 +9074,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>467</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -9088,13 +9091,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>1122</v>
+        <v>467</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
@@ -9105,13 +9108,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>1122</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -9122,13 +9125,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>3460</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -9139,33 +9142,33 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3460</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -9173,16 +9176,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>580</v>
-      </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -9190,16 +9193,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>7702</v>
+        <v>580</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -9207,16 +9210,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>3300</v>
+        <v>7702</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -9224,21 +9227,27 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>3300</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <v>6</v>
+      <c r="A25" t="s">
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25">
         <v>1.69</v>
@@ -9246,10 +9255,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26">
         <v>1.5</v>
@@ -9257,10 +9266,10 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -9268,10 +9277,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -9279,12 +9288,12 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -9294,47 +9303,47 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -9344,28 +9353,25 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
         <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -9373,7 +9379,7 @@
         <v>89</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -9381,7 +9387,7 @@
         <v>90</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -9389,7 +9395,7 @@
         <v>91</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -9397,7 +9403,7 @@
         <v>92</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -9413,7 +9419,7 @@
         <v>94</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -9421,7 +9427,7 @@
         <v>95</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -9429,7 +9435,7 @@
         <v>96</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -9437,7 +9443,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -9445,7 +9451,7 @@
         <v>98</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -9453,7 +9459,7 @@
         <v>99</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -9469,7 +9475,7 @@
         <v>101</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -9477,7 +9483,7 @@
         <v>102</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -9485,15 +9491,15 @@
         <v>103</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -9506,26 +9512,26 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B63">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -9533,17 +9539,20 @@
         <v>104</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>105</v>
       </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <v>6</v>
+      <c r="A68" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="69">
@@ -9553,86 +9562,91 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
         <v>1</v>
       </c>
     </row>

--- a/src/informesGenerados/ResumenCDNT.xlsx
+++ b/src/informesGenerados/ResumenCDNT.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Mes</t>
   </si>
@@ -101,54 +101,54 @@
     <t>U/O</t>
   </si>
   <si>
+    <t>DTMZ</t>
+  </si>
+  <si>
+    <t>DTAR</t>
+  </si>
+  <si>
+    <t>DTPR</t>
+  </si>
+  <si>
+    <t>DVLH</t>
+  </si>
+  <si>
+    <t>DTVC</t>
+  </si>
+  <si>
     <t>DTLT</t>
   </si>
   <si>
+    <t>DTMY</t>
+  </si>
+  <si>
+    <t>DTIJ</t>
+  </si>
+  <si>
+    <t>DTGR</t>
+  </si>
+  <si>
+    <t>DTGT</t>
+  </si>
+  <si>
+    <t>DTCF</t>
+  </si>
+  <si>
+    <t>DTSC</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
     <t>DTCA</t>
   </si>
   <si>
-    <t>DTPR</t>
-  </si>
-  <si>
-    <t>DTCM</t>
+    <t>DTSS</t>
   </si>
   <si>
     <t>DTHO</t>
   </si>
   <si>
-    <t>DTAR</t>
-  </si>
-  <si>
-    <t>DTVC</t>
-  </si>
-  <si>
-    <t>DTCF</t>
-  </si>
-  <si>
-    <t>DTMY</t>
-  </si>
-  <si>
-    <t>DTMZ</t>
-  </si>
-  <si>
-    <t>DVLH</t>
-  </si>
-  <si>
-    <t>DTIJ</t>
-  </si>
-  <si>
-    <t>DTGT</t>
-  </si>
-  <si>
-    <t>DTSC</t>
-  </si>
-  <si>
-    <t>DTSS</t>
-  </si>
-  <si>
-    <t>DTGR</t>
-  </si>
-  <si>
     <t>Totales</t>
   </si>
   <si>
@@ -215,127 +215,157 @@
     <t>Cable telefónico</t>
   </si>
   <si>
+    <t>Cable de aterramiento</t>
+  </si>
+  <si>
+    <t>Bajante telefónico</t>
+  </si>
+  <si>
+    <t>Gabinetes</t>
+  </si>
+  <si>
+    <t>Tensor de anclaje</t>
+  </si>
+  <si>
+    <t>Cable simétrico</t>
+  </si>
+  <si>
+    <t>Alambre de cobre</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>Postes</t>
+  </si>
+  <si>
     <t>Cable coaxial</t>
   </si>
   <si>
-    <t>Bajante telefónico</t>
-  </si>
-  <si>
-    <t>Gabinetes</t>
-  </si>
-  <si>
-    <t>Tensor de anclaje</t>
-  </si>
-  <si>
-    <t>Cable simétrico</t>
-  </si>
-  <si>
-    <t>Alambre de cobre</t>
-  </si>
-  <si>
-    <t>Tensor</t>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>53 Servicios Afectados</t>
+  </si>
+  <si>
+    <t>Mariel</t>
+  </si>
+  <si>
+    <t>Isla de la Juventud</t>
   </si>
   <si>
     <t>Alambre de coser</t>
   </si>
   <si>
+    <t>Banes</t>
+  </si>
+  <si>
     <t>Crucetas</t>
   </si>
   <si>
-    <t>Postes</t>
+    <t>Artemisa</t>
+  </si>
+  <si>
+    <t>Habana del Este</t>
   </si>
   <si>
     <t>Mondragón</t>
   </si>
   <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>26 Servicios Afectados</t>
-  </si>
-  <si>
-    <t>Plaza</t>
-  </si>
-  <si>
-    <t>Habana del Este</t>
-  </si>
-  <si>
-    <t>3 Municipios</t>
-  </si>
-  <si>
     <t>11 Municipios</t>
   </si>
   <si>
+    <t>Cant-Hechos</t>
+  </si>
+  <si>
+    <t>15 Municipios</t>
+  </si>
+  <si>
     <t>% Servicios Afectados</t>
   </si>
   <si>
-    <t>Cant-Hechos</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>1 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>3 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>13 Municipios &lt;=</t>
-  </si>
-  <si>
-    <t>Cantidad de Hechos: 75</t>
+    <t>Corralillo</t>
+  </si>
+  <si>
+    <t>Mella</t>
+  </si>
+  <si>
+    <t>Jobabo</t>
+  </si>
+  <si>
+    <t>Manicaragua</t>
+  </si>
+  <si>
+    <t>5 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>10 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>12 Municipios &lt;=</t>
+  </si>
+  <si>
+    <t>Cantidad de Hechos: 78</t>
+  </si>
+  <si>
+    <t>Arroyo Naranjo</t>
   </si>
   <si>
     <t>Santiago de Cuba</t>
   </si>
   <si>
+    <t>Bayamo</t>
+  </si>
+  <si>
     <t>Las Tunas</t>
   </si>
   <si>
-    <t>Bayamo</t>
+    <t>Jovellanos</t>
+  </si>
+  <si>
+    <t>Holguín</t>
+  </si>
+  <si>
+    <t>Jagüey Grande</t>
+  </si>
+  <si>
+    <t>San Luis (SC)</t>
   </si>
   <si>
     <t>Camagüey</t>
   </si>
   <si>
-    <t>Jovellanos</t>
-  </si>
-  <si>
-    <t>Isla de la Juventud</t>
-  </si>
-  <si>
-    <t>9 Municipios</t>
-  </si>
-  <si>
-    <t>26 Municipios</t>
+    <t>5 Municipios</t>
+  </si>
+  <si>
+    <t>20 Municipios</t>
+  </si>
+  <si>
+    <t>Cabina rota</t>
   </si>
   <si>
     <t>Robo de cápsulas</t>
   </si>
   <si>
-    <t>Cabina rota</t>
-  </si>
-  <si>
     <t>Robo del microteléfono</t>
   </si>
   <si>
+    <t>Corte del bajante</t>
+  </si>
+  <si>
+    <t>Vandalismo múltiple</t>
+  </si>
+  <si>
+    <t>Microteléfono partido</t>
+  </si>
+  <si>
+    <t>Robo equipo completo</t>
+  </si>
+  <si>
+    <t>Robo de la hucha</t>
+  </si>
+  <si>
     <t>Display roto o dañado</t>
-  </si>
-  <si>
-    <t>Corte del bajante</t>
-  </si>
-  <si>
-    <t>Vandalismo múltiple</t>
-  </si>
-  <si>
-    <t>Microteléfono partido</t>
-  </si>
-  <si>
-    <t>Robo equipo completo</t>
-  </si>
-  <si>
-    <t>Robo de la hucha</t>
   </si>
   <si>
     <t>Cant-Hechos-Tpub</t>
@@ -679,13 +709,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
@@ -772,7 +802,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 126 hechos</c:v>
+            <c:v>2019: 243 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -889,7 +919,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 243 hechos</c:v>
+            <c:v>2020: 247 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1094,7 +1124,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 64 hechos</c:v>
+            <c:v>2019: 73 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1219,49 +1249,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,7 +1301,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 75 hechos</c:v>
+            <c:v>2020: 78 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1393,49 +1423,49 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1537,7 +1567,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>2020: 41 hechos</c:v>
+            <c:v>2019: 58 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1659,52 +1689,52 @@
               <c:numCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1714,7 +1744,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2021: 20 hechos</c:v>
+            <c:v>2020: 47 hechos</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -1839,49 +1869,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,11 +2010,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$45</c:f>
+              <c:f>'Datos para graficos'!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cantidad de Hechos: 75</c:v>
+                  <c:v>Cantidad de Hechos: 78</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2049,63 +2079,81 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$46:$A$53</c:f>
+              <c:f>'Datos para graficos'!$A$52:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>Arroyo Naranjo</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Santiago de Cuba</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Las Tunas</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Bayamo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Camagüey</c:v>
+                  <c:v>Las Tunas</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Jovellanos</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Isla de la Juventud</c:v>
+                  <c:v>Holguín</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9 Municipios</c:v>
+                  <c:v>Jagüey Grande</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26 Municipios</c:v>
+                  <c:v>San Luis (SC)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Camagüey</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$46:$B$53</c:f>
+              <c:f>'Datos para graficos'!$B$52:$B$62</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2193,7 +2241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26 Servicios Afectados</c:v>
+                  <c:v>53 Servicios Afectados</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2258,39 +2306,57 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$E$20:$E$23</c:f>
+              <c:f>'Datos para graficos'!$E$20:$E$26</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Plaza</c:v>
+                  <c:v>Mariel</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Isla de la Juventud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Banes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Artemisa</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Habana del Este</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3 Municipios</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>11 Municipios</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15 Municipios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$F$20:$F$23</c:f>
+              <c:f>'Datos para graficos'!$F$20:$F$26</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2373,11 +2439,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$16</c:f>
+              <c:f>'Datos para graficos'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2427,9 +2493,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$17:$A$25</c:f>
+              <c:f>'Datos para graficos'!$A$14:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>Cable telefónico</c:v>
                 </c:pt>
@@ -2443,18 +2509,30 @@
                   <c:v>Gabinetes</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Tensor de anclaje</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Cable simétrico</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Alambre de cobre</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Tensor</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Alambre de coser</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>Crucetas</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Postes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mondragón</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Cant-Hechos</c:v>
                 </c:pt>
               </c:strCache>
@@ -2462,20 +2540,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$17:$B$25</c:f>
+              <c:f>'Datos para graficos'!$B$14:$B$26</c:f>
               <c:numCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2484,12 +2562,24 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2543,11 +2633,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos para graficos'!$B$62</c:f>
+              <c:f>'Datos para graficos'!$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2597,25 +2687,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Datos para graficos'!$A$63:$A$68</c:f>
+              <c:f>'Datos para graficos'!$A$72:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Cabina rota</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Robo del microteléfono</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>Display roto o dañado</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Corte del bajante</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vandalismo múltiple</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Microteléfono partido</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Vandalismo múltiple</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>Robo equipo completo</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Robo de la hucha</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Cant-Hechos-Tpub</c:v>
                 </c:pt>
               </c:strCache>
@@ -2623,25 +2719,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$B$63:$B$68</c:f>
+              <c:f>'Datos para graficos'!$B$72:$B$79</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2765,7 +2867,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -2804,7 +2906,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -2847,70 +2949,85 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$A$25:$A$45</c:f>
+              <c:f>'Datos para graficos'!$A$26:$A$51</c:f>
               <c:numCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3065,7 +3182,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -3104,7 +3221,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -3147,70 +3264,85 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Datos para graficos'!$A$68:$A$88</c:f>
+              <c:f>'Datos para graficos'!$A$79:$A$104</c:f>
               <c:numCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -3876,7 +4008,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3891,26 +4023,26 @@
         <v>8</v>
       </c>
       <c r="B3" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="8">
         <f ca="1">SUM(B3:G3)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -3918,10 +4050,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
         <v>6</v>
@@ -3933,11 +4065,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="8">
         <f ca="1">SUM(B4:G4)</f>
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -3945,16 +4077,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -3964,7 +4096,7 @@
       </c>
       <c r="H5" s="8">
         <f ca="1">SUM(B5:G5)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -3972,10 +4104,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -3987,11 +4119,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
         <f ca="1">SUM(B6:G6)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -3999,22 +4131,22 @@
         <v>12</v>
       </c>
       <c r="B7" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
         <f ca="1">SUM(B7:G7)</f>
@@ -4026,13 +4158,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -4041,11 +4173,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">SUM(B8:G8)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -4053,26 +4185,26 @@
         <v>14</v>
       </c>
       <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
       <c r="E9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">SUM(B9:G9)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -4080,26 +4212,26 @@
         <v>15</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">SUM(B10:G10)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -4107,26 +4239,26 @@
         <v>16</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">SUM(B11:G11)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -4134,13 +4266,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -4149,11 +4281,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">SUM(B12:G12)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -4161,13 +4293,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -4176,11 +4308,11 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">SUM(B13:G13)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -4188,13 +4320,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -4203,11 +4335,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">SUM(B14:G14)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -4240,12 +4372,12 @@
       </c>
       <c r="H15" s="2">
         <f ca="1">SUM(H3:H14)</f>
-        <v>126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4260,16 +4392,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -4279,7 +4411,7 @@
       </c>
       <c r="H17" s="10">
         <f ca="1">SUM(B17:G17)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -4287,13 +4419,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -4302,11 +4434,11 @@
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="10">
         <f ca="1">SUM(B18:G18)</f>
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -4314,13 +4446,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -4329,11 +4461,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="10">
         <f ca="1">SUM(B19:G19)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -4341,16 +4473,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7">
         <v>0</v>
@@ -4360,7 +4492,7 @@
       </c>
       <c r="H20" s="10">
         <f ca="1">SUM(B20:G20)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -4368,13 +4500,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -4387,7 +4519,7 @@
       </c>
       <c r="H21" s="10">
         <f ca="1">SUM(B21:G21)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -4395,13 +4527,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -4414,7 +4546,7 @@
       </c>
       <c r="H22" s="10">
         <f ca="1">SUM(B22:G22)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -4422,16 +4554,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="7">
+        <v>11</v>
+      </c>
+      <c r="C23" s="7">
         <v>7</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
       </c>
       <c r="D23" s="7">
         <v>6</v>
       </c>
       <c r="E23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="7">
         <v>0</v>
@@ -4441,7 +4573,7 @@
       </c>
       <c r="H23" s="10">
         <f ca="1">SUM(B23:G23)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -4449,13 +4581,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
         <v>7</v>
-      </c>
-      <c r="D24" s="7">
-        <v>4</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -4468,7 +4600,7 @@
       </c>
       <c r="H24" s="10">
         <f ca="1">SUM(B24:G24)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -4476,26 +4608,26 @@
         <v>16</v>
       </c>
       <c r="B25" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="10">
         <f ca="1">SUM(B25:G25)</f>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -4503,13 +4635,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -4518,11 +4650,11 @@
         <v>0</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="10">
         <f ca="1">SUM(B26:G26)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -4530,26 +4662,26 @@
         <v>18</v>
       </c>
       <c r="B27" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
       </c>
       <c r="G27" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="10">
         <f ca="1">SUM(B27:G27)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -4557,13 +4689,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -4576,7 +4708,7 @@
       </c>
       <c r="H28" s="10">
         <f ca="1">SUM(B28:G28)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -4609,7 +4741,7 @@
       </c>
       <c r="H29" s="13">
         <f ca="1">SUM(H17:H28)</f>
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4653,32 +4785,32 @@
     </row>
     <row r="2" ht="26.25" customHeight="true">
       <c r="A2" s="14">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="15">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" s="15">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D2" s="16">
         <f ca="1">B2+C2</f>
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="true">
       <c r="A3" s="14">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="15">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="15">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3" s="16">
         <f ca="1">C3+B3</f>
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="true">
@@ -4687,15 +4819,15 @@
       </c>
       <c r="B4" s="14" t="str">
         <f ca="1">IF(B3&gt;B2,(B3-B2)&amp;" más",IF(B2&gt;B3,(B2-B3)&amp;" menos","Igual"))</f>
-        <v>11 más</v>
+        <v>5 más</v>
       </c>
       <c r="C4" s="14" t="str">
         <f ca="1">IF(C3&gt;C2,(C3-C2)&amp;" más",IF(C2&gt;C3,(C2-C3)&amp;" menos","Igual"))</f>
-        <v>20 menos</v>
+        <v>11 menos</v>
       </c>
       <c r="D4" s="16" t="str">
         <f ca="1">IF(D3&gt;D2,(D3-D2)&amp;" más",IF(D2&gt;D3,(D2-D3)&amp;" menos","Igual"))</f>
-        <v>9 menos</v>
+        <v>6 menos</v>
       </c>
     </row>
     <row r="5" ht="26.25" customHeight="true">
@@ -4704,15 +4836,15 @@
       </c>
       <c r="B5" s="17" t="str">
         <f ca="1">IF(B3&lt;B2,ROUND(100*(B2-B3)/B2,0)  &amp;  "% Red",IF(B3=B2,0%,ROUND(100*(B3-B2)/B2,0) &amp; "% Inc"))</f>
-        <v>17% Inc</v>
+        <v>7% Inc</v>
       </c>
       <c r="C5" s="17" t="str">
         <f ca="1">IF(C3&lt;C2,ROUND(100*(C2-C3)/C2,0) &amp; "% Red",IF(C3=C2,0%,ROUND(100*(C3-C2)/C2,0) &amp; "% Inc"))</f>
-        <v>49% Red</v>
+        <v>19% Red</v>
       </c>
       <c r="D5" s="18" t="str">
         <f ca="1">IF(D3&lt;D2,ROUND(100*(D2-D3)/D2,0) &amp; "% Red",IF(D3=D2,0%,ROUND(100*(D3-D2)/D2,0) &amp; "% Inc"))</f>
-        <v>9% Red</v>
+        <v>5% Red</v>
       </c>
     </row>
     <row r="8">
@@ -4745,19 +4877,19 @@
     <row r="9">
       <c r="A9" s="21"/>
       <c r="B9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="1">
         <v>2020</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2021</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="1">
         <v>2020</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2021</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>23</v>
@@ -4766,13 +4898,13 @@
         <v>27</v>
       </c>
       <c r="J9" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -4783,286 +4915,286 @@
         <v>1</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="23">
         <f ca="1">C10-B10</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
       </c>
       <c r="G10" s="24">
         <f ca="1">F10-E10</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="24">
-        <v>0</v>
+      <c r="M10" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="23">
         <f ca="1">C11-B11</f>
+        <v>-4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="22">
+        <f ca="1">F11-E11</f>
         <v>4</v>
       </c>
-      <c r="E11" s="7">
-        <v>6</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4</v>
-      </c>
-      <c r="G11" s="24">
-        <f ca="1">F11-E11</f>
-        <v>-2</v>
-      </c>
       <c r="I11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="22">
         <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="24">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="M11" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12" s="25">
         <f ca="1">C12-B12</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="24">
         <f ca="1">F12-E12</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12" s="22">
         <v>4</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="24">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="M12" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
         <v>15</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4</v>
       </c>
       <c r="D13" s="25">
         <f ca="1">C13-B13</f>
-        <v>-11</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
         <v>6</v>
       </c>
       <c r="F13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="24">
         <f ca="1">F13-E13</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J13" s="22">
         <v>3</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="24">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="M13" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="23">
         <f ca="1">C14-B14</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <f ca="1">F14-E14</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M14" s="24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="25">
         <f ca="1">C15-B15</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E15" s="7">
         <v>4</v>
       </c>
       <c r="F15" s="7">
-        <v>4</v>
-      </c>
-      <c r="G15" s="24">
+        <v>6</v>
+      </c>
+      <c r="G15" s="22">
         <f ca="1">F15-E15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M15" s="24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="D16" s="25">
         <f ca="1">C16-B16</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="24">
         <f ca="1">F16-E16</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J16" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M16" s="24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="23">
         <f ca="1">C17-B17</f>
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="E17" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
+        <v>7</v>
+      </c>
+      <c r="G17" s="22">
         <f ca="1">F17-E17</f>
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="22">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>35</v>
@@ -5076,144 +5208,144 @@
         <v>41</v>
       </c>
       <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <f ca="1">C18-B18</f>
         <v>-1</v>
       </c>
       <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7">
         <v>3</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
       </c>
       <c r="G18" s="24">
         <f ca="1">F18-E18</f>
         <v>-3</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J18" s="24">
         <v>0</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M18" s="24">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="25">
         <f ca="1">C19-B19</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
+        <f ca="1">F19-E19</f>
         <v>-1</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22">
-        <f ca="1">F19-E19</f>
-        <v>1</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="24">
         <v>-1</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M19" s="24">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" s="23">
         <f ca="1">C20-B20</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
       </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="24">
         <f ca="1">F20-E20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="24">
         <v>-2</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="24">
+      <c r="L20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="24">
         <v>-1</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="24">
-        <v>-2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7">
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
-      </c>
-      <c r="D21" s="23">
+        <v>7</v>
+      </c>
+      <c r="D21" s="25">
         <f ca="1">C21-B21</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7">
         <v>2</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
       </c>
       <c r="G21" s="24">
         <f ca="1">F21-E21</f>
         <v>-1</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J21" s="24">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M21" s="24">
         <v>-2</v>
@@ -5221,138 +5353,138 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="25">
+        <v>8</v>
+      </c>
+      <c r="D22" s="23">
         <f ca="1">C22-B22</f>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="E22" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="24">
         <f ca="1">F22-E22</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J22" s="24">
+        <v>-4</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="24">
         <v>-3</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="24">
-        <v>-2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
         <v>7</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6</v>
       </c>
       <c r="D23" s="25">
         <f ca="1">C23-B23</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
         <v>2</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
       </c>
       <c r="G23" s="24">
         <f ca="1">F23-E23</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J23" s="24">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M23" s="24">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="23">
+        <v>13</v>
+      </c>
+      <c r="D24" s="25">
         <f ca="1">C24-B24</f>
         <v>1</v>
       </c>
       <c r="E24" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="24">
         <f ca="1">F24-E24</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J24" s="27">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="L24" s="26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M24" s="27">
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <f ca="1">C25-B25</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
         <v>2</v>
       </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <f ca="1">F25-E25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -5386,8 +5518,8 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5411,7 +5543,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -5426,7 +5558,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
       <c r="O1" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
@@ -5577,10 +5709,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -5592,17 +5724,17 @@
         <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <f ca="1">SUM(P4:AA4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
         <v>0</v>
@@ -5611,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7">
         <v>0</v>
@@ -5620,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="7">
         <v>0</v>
@@ -5632,15 +5764,15 @@
         <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <f ca="1">SUM(C5:N5)</f>
@@ -5662,10 +5794,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -5677,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -5690,19 +5822,19 @@
         <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
         <v>0</v>
@@ -5711,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="7">
         <v>0</v>
@@ -5720,37 +5852,37 @@
         <v>0</v>
       </c>
       <c r="AA5" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <f ca="1">SUM(C6:N6)</f>
         <v>0</v>
       </c>
       <c r="C6" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -5765,29 +5897,29 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <f ca="1">SUM(P6:AA6)</f>
         <v>0</v>
       </c>
       <c r="P6" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="7">
         <v>0</v>
       </c>
       <c r="T6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="7">
         <v>1</v>
@@ -5796,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="7">
         <v>0</v>
@@ -5805,52 +5937,52 @@
         <v>0</v>
       </c>
       <c r="AA6" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <f ca="1">SUM(C7:N7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <f ca="1">SUM(P7:AA7)</f>
@@ -5860,19 +5992,19 @@
         <v>1</v>
       </c>
       <c r="Q7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="7">
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="7">
         <v>0</v>
@@ -5890,12 +6022,12 @@
         <v>0</v>
       </c>
       <c r="AA7" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <f ca="1">SUM(C8:N8)</f>
@@ -5905,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -5929,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5954,10 +6086,10 @@
         <v>0</v>
       </c>
       <c r="T8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="7">
         <v>0</v>
@@ -5980,47 +6112,47 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
         <f ca="1">SUM(C9:N9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7">
         <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>3</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
       </c>
       <c r="O9" s="2">
         <f ca="1">SUM(P9:AA9)</f>
@@ -6030,28 +6162,28 @@
         <v>1</v>
       </c>
       <c r="Q9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="7">
         <v>0</v>
       </c>
       <c r="X9" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9" s="7">
         <v>0</v>
@@ -6065,7 +6197,7 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
         <f ca="1">SUM(C10:N10)</f>
@@ -6090,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="7">
         <v>0</v>
@@ -6102,20 +6234,20 @@
         <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <f ca="1">SUM(P10:AA10)</f>
         <v>0</v>
       </c>
       <c r="P10" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="7">
         <v>0</v>
@@ -6124,16 +6256,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="7">
         <v>0</v>
@@ -6150,7 +6282,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2">
         <f ca="1">SUM(C11:N11)</f>
@@ -6166,16 +6298,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -6184,10 +6316,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -6203,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="7">
         <v>0</v>
@@ -6212,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" s="7">
         <v>0</v>
@@ -6227,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11" s="32">
         <v>0</v>
@@ -6245,13 +6377,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -6260,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -6282,28 +6414,28 @@
         <v>0</v>
       </c>
       <c r="P12" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="7">
         <v>0</v>
       </c>
       <c r="S12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="7">
         <v>0</v>
       </c>
       <c r="U12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="7">
         <v>0</v>
       </c>
       <c r="W12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="7">
         <v>0</v>
@@ -6320,7 +6452,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <f ca="1">SUM(C13:N13)</f>
@@ -6339,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6379,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="7">
         <v>0</v>
@@ -6405,23 +6537,23 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <f ca="1">SUM(C14:N14)</f>
         <v>0</v>
       </c>
       <c r="C14" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
@@ -6436,35 +6568,35 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <f ca="1">SUM(P14:AA14)</f>
         <v>0</v>
       </c>
       <c r="P14" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
         <v>1</v>
       </c>
       <c r="R14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="7">
         <v>1</v>
@@ -6476,37 +6608,37 @@
         <v>0</v>
       </c>
       <c r="X14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="7">
         <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA14" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <f ca="1">SUM(C15:N15)</f>
         <v>0</v>
       </c>
       <c r="C15" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -6521,16 +6653,16 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <f ca="1">SUM(P15:AA15)</f>
@@ -6540,82 +6672,82 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>3</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
         <v>2</v>
       </c>
-      <c r="R15" s="7">
+      <c r="Y15" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="7">
         <v>2</v>
       </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>4</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7">
-        <v>1</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
       <c r="AA15" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <f ca="1">SUM(C16:N16)</f>
         <v>0</v>
       </c>
       <c r="C16" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
         <v>3</v>
       </c>
       <c r="J16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
         <v>2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
       </c>
       <c r="O16" s="2">
         <f ca="1">SUM(P16:AA16)</f>
@@ -6634,25 +6766,25 @@
         <v>0</v>
       </c>
       <c r="T16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="7">
+        <v>1</v>
+      </c>
+      <c r="V16" s="7">
+        <v>3</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
         <v>2</v>
-      </c>
-      <c r="V16" s="7">
-        <v>1</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0</v>
       </c>
       <c r="AA16" s="32">
         <v>0</v>
@@ -6660,29 +6792,29 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
         <f ca="1">SUM(C17:N17)</f>
         <v>0</v>
       </c>
       <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
@@ -6691,13 +6823,13 @@
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7">
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
@@ -6707,25 +6839,25 @@
         <v>0</v>
       </c>
       <c r="P17" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" s="7">
         <v>1</v>
       </c>
       <c r="S17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="7">
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="7">
         <v>0</v>
@@ -6737,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="32">
         <v>0</v>
@@ -6745,7 +6877,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
         <f ca="1">SUM(C18:N18)</f>
@@ -6758,50 +6890,50 @@
         <v>2</v>
       </c>
       <c r="E18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7</v>
+      </c>
+      <c r="M18" s="7">
         <v>3</v>
       </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
-        <v>2</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O18" s="2">
         <f ca="1">SUM(P18:AA18)</f>
         <v>0</v>
       </c>
       <c r="P18" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="7">
         <v>1</v>
@@ -6813,16 +6945,16 @@
         <v>1</v>
       </c>
       <c r="W18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="32">
         <v>0</v>
@@ -6830,14 +6962,14 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <f ca="1">SUM(C19:N19)</f>
         <v>0</v>
       </c>
       <c r="C19" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -6846,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
@@ -7062,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -7074,13 +7206,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="7">
         <v>0</v>
@@ -7111,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="S22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="7">
         <v>0</v>
       </c>
       <c r="U22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="7">
         <v>0</v>
@@ -7140,14 +7272,14 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2">
         <f ca="1">SUM(C23:N23)</f>
         <v>0</v>
       </c>
       <c r="C23" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -7156,19 +7288,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="7">
         <v>0</v>
@@ -7177,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
         <v>1</v>
@@ -7187,25 +7319,25 @@
         <v>0</v>
       </c>
       <c r="P23" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="7">
         <v>0</v>
       </c>
       <c r="R23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="7">
         <v>0</v>
       </c>
       <c r="V23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="7">
         <v>0</v>
@@ -7214,18 +7346,18 @@
         <v>0</v>
       </c>
       <c r="Y23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2">
         <f ca="1">SUM(C24:N24)</f>
@@ -7244,10 +7376,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
@@ -7256,16 +7388,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <f ca="1">SUM(P24:AA24)</f>
@@ -7284,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="7">
         <v>0</v>
@@ -7305,12 +7437,12 @@
         <v>0</v>
       </c>
       <c r="AA24" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <f ca="1">SUM(C25:N25)</f>
@@ -7326,19 +7458,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
         <v>0</v>
       </c>
       <c r="J25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="7">
         <v>0</v>
@@ -7357,10 +7489,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="7">
         <v>1</v>
@@ -7369,16 +7501,16 @@
         <v>1</v>
       </c>
       <c r="T25" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="7">
         <v>0</v>
       </c>
       <c r="W25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="7">
         <v>0</v>
@@ -7395,7 +7527,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <f ca="1">SUM(C26:N26)</f>
@@ -7405,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -7423,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -7435,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <f ca="1">SUM(P26:AA26)</f>
@@ -7445,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="7">
         <v>0</v>
@@ -7463,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="7">
         <v>0</v>
@@ -7480,7 +7612,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <f ca="1">SUM(C27:N27)</f>
@@ -7490,31 +7622,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7">
         <v>1</v>
       </c>
       <c r="F27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -7527,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="7">
         <v>1</v>
@@ -7542,19 +7674,19 @@
         <v>0</v>
       </c>
       <c r="U27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="7">
         <v>0</v>
       </c>
       <c r="W27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="7">
         <v>0</v>
@@ -7565,26 +7697,26 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <f ca="1">SUM(C28:N28)</f>
         <v>0</v>
       </c>
       <c r="C28" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7596,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7">
         <v>0</v>
@@ -7605,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <f ca="1">SUM(P28:AA28)</f>
@@ -7615,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="7">
         <v>0</v>
@@ -7627,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="7">
         <v>0</v>
@@ -7645,12 +7777,12 @@
         <v>0</v>
       </c>
       <c r="AA28" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <f ca="1">SUM(C29:N29)</f>
@@ -7669,16 +7801,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
         <v>2</v>
       </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
       <c r="J29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="7">
         <v>1</v>
@@ -7690,26 +7822,26 @@
         <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="2">
         <f ca="1">SUM(P29:AA29)</f>
         <v>0</v>
       </c>
       <c r="P29" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="7">
         <v>0</v>
       </c>
       <c r="R29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="7">
         <v>0</v>
       </c>
       <c r="T29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U29" s="7">
         <v>0</v>
@@ -7718,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="7">
         <v>0</v>
@@ -7730,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -7748,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
@@ -7757,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -7769,13 +7901,13 @@
         <v>0</v>
       </c>
       <c r="L30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
       </c>
       <c r="N30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <f ca="1">SUM(P30:AA30)</f>
@@ -7791,16 +7923,16 @@
         <v>0</v>
       </c>
       <c r="S30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="7">
         <v>0</v>
       </c>
       <c r="U30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="7">
         <v>0</v>
@@ -7809,18 +7941,18 @@
         <v>0</v>
       </c>
       <c r="Y30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="7">
         <v>0</v>
       </c>
       <c r="AA30" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2">
         <f ca="1">SUM(C31:N31)</f>
@@ -7845,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="7">
         <v>0</v>
@@ -7857,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
         <v>0</v>
@@ -7867,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
         <v>0</v>
@@ -7905,7 +8037,7 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <f ca="1">SUM(C32:N32)</f>
@@ -7915,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
       </c>
       <c r="F32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
@@ -7958,10 +8090,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="7">
         <v>0</v>
@@ -7990,7 +8122,7 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
         <f ca="1">SUM(C33:N33)</f>
@@ -8006,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
@@ -8018,29 +8150,29 @@
         <v>0</v>
       </c>
       <c r="J33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
       </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="2">
         <f ca="1">SUM(P33:AA33)</f>
         <v>0</v>
       </c>
       <c r="P33" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="7">
         <v>0</v>
@@ -8058,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="7">
         <v>0</v>
@@ -8067,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="32">
         <v>0</v>
@@ -8075,7 +8207,7 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <f ca="1">SUM(C34:N34)</f>
@@ -8085,28 +8217,28 @@
         <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
       </c>
       <c r="F34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
       </c>
       <c r="K34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="7">
         <v>0</v>
@@ -8115,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <f ca="1">SUM(P34:AA34)</f>
@@ -8131,13 +8263,13 @@
         <v>0</v>
       </c>
       <c r="S34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="7">
         <v>0</v>
       </c>
       <c r="U34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="7">
         <v>0</v>
@@ -8146,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="7">
         <v>0</v>
@@ -8155,12 +8287,12 @@
         <v>0</v>
       </c>
       <c r="AA34" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <f ca="1">SUM(C35:N35)</f>
@@ -8173,13 +8305,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="7">
         <v>0</v>
       </c>
       <c r="G35" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -8210,10 +8342,10 @@
         <v>0</v>
       </c>
       <c r="Q35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="7">
         <v>0</v>
@@ -8245,14 +8377,14 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <f ca="1">SUM(C36:N36)</f>
         <v>0</v>
       </c>
       <c r="C36" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
         <v>0</v>
@@ -8264,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
@@ -8276,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="7">
         <v>1</v>
@@ -8285,14 +8417,14 @@
         <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="2">
         <f ca="1">SUM(P36:AA36)</f>
         <v>0</v>
       </c>
       <c r="P36" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="7">
         <v>0</v>
@@ -8304,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="7">
         <v>0</v>
@@ -8319,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="7">
         <v>0</v>
@@ -8330,20 +8462,20 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <f ca="1">SUM(C37:N37)</f>
         <v>0</v>
       </c>
       <c r="C37" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="7">
         <v>0</v>
@@ -8377,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="7">
         <v>0</v>
@@ -8395,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="7">
         <v>0</v>
@@ -8538,16 +8670,16 @@
     </row>
     <row r="42">
       <c r="B42" s="7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E42" s="36">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -8556,10 +8688,10 @@
         <v>46</v>
       </c>
       <c r="D43" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E43" s="36">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -8568,10 +8700,10 @@
         <v>47</v>
       </c>
       <c r="D44" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E44" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -8580,10 +8712,10 @@
         <v>48</v>
       </c>
       <c r="D45" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E45" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -8592,10 +8724,10 @@
         <v>49</v>
       </c>
       <c r="D46" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E46" s="36">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -8604,10 +8736,10 @@
         <v>50</v>
       </c>
       <c r="D47" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -8616,10 +8748,10 @@
         <v>51</v>
       </c>
       <c r="D48" s="7">
+        <v>11</v>
+      </c>
+      <c r="E48" s="36">
         <v>7</v>
-      </c>
-      <c r="E48" s="36">
-        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -8628,10 +8760,10 @@
         <v>52</v>
       </c>
       <c r="D49" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" s="36">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -8640,10 +8772,10 @@
         <v>53</v>
       </c>
       <c r="D50" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -8652,10 +8784,10 @@
         <v>54</v>
       </c>
       <c r="D51" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E51" s="36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -8664,10 +8796,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E52" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -8676,24 +8808,24 @@
         <v>56</v>
       </c>
       <c r="D53" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E53" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E54" s="36">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -8702,10 +8834,10 @@
         <v>46</v>
       </c>
       <c r="D55" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E55" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -8714,7 +8846,7 @@
         <v>47</v>
       </c>
       <c r="D56" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" s="36">
         <v>4</v>
@@ -8726,10 +8858,10 @@
         <v>48</v>
       </c>
       <c r="D57" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E57" s="36">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -8738,10 +8870,10 @@
         <v>49</v>
       </c>
       <c r="D58" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E58" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -8750,10 +8882,10 @@
         <v>50</v>
       </c>
       <c r="D59" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E59" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -8762,10 +8894,10 @@
         <v>51</v>
       </c>
       <c r="D60" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -8774,10 +8906,10 @@
         <v>52</v>
       </c>
       <c r="D61" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" s="36">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -8786,10 +8918,10 @@
         <v>53</v>
       </c>
       <c r="D62" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E62" s="36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -8798,10 +8930,10 @@
         <v>54</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E63" s="36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -8810,10 +8942,10 @@
         <v>55</v>
       </c>
       <c r="D64" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E64" s="36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -8822,21 +8954,21 @@
         <v>56</v>
       </c>
       <c r="D65" s="26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E65" s="39">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B42:B53"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:AA21"/>
+    <mergeCell ref="B54:B65"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="B42:B53"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="A21:AA21"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -8846,7 +8978,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:A87"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -8876,13 +9008,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>994</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>0.51</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -8890,16 +9022,16 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>854</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -8910,13 +9042,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>0.08</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -8924,16 +9056,16 @@
         <v>66</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6">
-        <v>2423</v>
+        <v>3707</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="7">
@@ -8947,10 +9079,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.07</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
@@ -8958,16 +9090,16 @@
         <v>68</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>0.07</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
@@ -8975,16 +9107,16 @@
         <v>69</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
       </c>
       <c r="F9">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
@@ -8992,16 +9124,16 @@
         <v>70</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>450</v>
+        <v>2360</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -9009,16 +9141,16 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1070</v>
+        <v>4458</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
@@ -9026,112 +9158,112 @@
         <v>72</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1350</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>995</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>1404</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>467</v>
+        <v>3901</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1122</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
@@ -9142,50 +9274,50 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>3460</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>450</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1071</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -9193,36 +9325,36 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>580</v>
+        <v>1350</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>7702</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -9230,100 +9362,148 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3300</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" t="s">
         <v>82</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
       <c r="E25" t="s">
         <v>84</v>
       </c>
       <c r="F25">
-        <v>1.69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <v>6</v>
+      <c r="A26" t="s">
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29">
+        <v>2.37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30">
+        <v>2.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31">
+        <v>1.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32">
+        <v>1.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>1.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -9333,17 +9513,17 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -9353,150 +9533,132 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
+      <c r="A45">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46">
+      <c r="A46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
         <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -9504,7 +9666,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -9512,7 +9674,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -9520,134 +9682,247 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B64">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="B68">
+        <v>21</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <v>6</v>
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <v>6</v>
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78">
         <v>4</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>5</v>
-      </c>
-    </row>
     <row r="79">
-      <c r="A79">
-        <v>3</v>
+      <c r="A79" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
         <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
